--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/11 AUDITORIA DE ESTADO RESULTADOS/2 SUMARIA ESTADO RESULTADOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/11 AUDITORIA DE ESTADO RESULTADOS/2 SUMARIA ESTADO RESULTADOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\5 PRUEBAS SUSTANTIVAS\11 AUDITORIA DE ESTADO RESULTADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\11 AUDITORIA DE ESTADO RESULTADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C378833F-018B-496C-B4CF-C7463A4C1A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38BA595-C28A-479A-8A44-A8AAE075648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
-  <si>
-    <t xml:space="preserve">                                  AUDITORIA FINANCIERA </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Elaboro</t>
   </si>
@@ -47,9 +44,6 @@
   </si>
   <si>
     <t>Reviso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       (Cifras expresadas en quetzales)</t>
   </si>
   <si>
     <t xml:space="preserve">SALDOS S/ BALANCE GENERAL </t>
@@ -114,15 +108,6 @@
     <t>Haber</t>
   </si>
   <si>
-    <t xml:space="preserve">      ENTIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                           DEL 01 DE ENERO AL 31  DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          CEDULA SUMARIA ESTADO DE RESULTADOS </t>
-  </si>
-  <si>
     <t>R-1</t>
   </si>
   <si>
@@ -145,6 +130,24 @@
   </si>
   <si>
     <t>para obtener seguridad razonable sobre si los saldos presentados por la entidad, están libres de errores  significativos.</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDITORIA FINANCIERA </t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEDULA SUMARIA ESTADO DE RESULTADOS </t>
+  </si>
+  <si>
+    <t>(Cifras expresadas en quetzales)</t>
+  </si>
+  <si>
+    <t>Logo</t>
   </si>
 </sst>
 </file>
@@ -221,13 +224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -271,19 +267,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -413,89 +409,72 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -505,31 +484,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -552,176 +543,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>742949</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CuadroTexto 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="742949" y="190501"/>
-          <a:ext cx="1171575" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-GT" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-GT" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CuadroTexto 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12163425" y="1466850"/>
-          <a:ext cx="3124200" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100"/>
-            <a:t>La referencia </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>R </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100"/>
-            <a:t>al hacer clic es un vinculo a este papel que debe abrir en sistema </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1150,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,445 +989,443 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
+      <c r="B3" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="18" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="49"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="49"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="38"/>
+      <c r="C14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22">
+        <f t="shared" ref="E14:J14" si="0">SUBTOTAL(9,E13:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-      <c r="C14" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31">
-        <f>SUBTOTAL(9,E13:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="31">
-        <f>SUBTOTAL(9,F13:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="31">
-        <f>SUBTOTAL(9,G13:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="32">
-        <f>SUBTOTAL(9,H13:H13)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="32">
-        <f>SUBTOTAL(9,I13:I13)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="33">
-        <f>SUBTOTAL(9,J13:J13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="30"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="37"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="37"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="30"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="37"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="37"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="37"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="37"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="39"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="37"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="40" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="26"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="37"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="39"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="37"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="35" t="s">
+      <c r="C28" s="28"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
+      <c r="E29" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="E30" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="37"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="35"/>
-      <c r="C29" s="37"/>
-      <c r="E29" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="E30" s="43" t="s">
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="43" t="s">
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
+    <mergeCell ref="B3:B6"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
